--- a/xlsx/美国联邦地区法院_intext.xlsx
+++ b/xlsx/美国联邦地区法院_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="469">
   <si>
     <t>美国联邦地区法院</t>
   </si>
@@ -29,7 +29,7 @@
     <t>美利坚合众国</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国联邦地区法院</t>
+    <t>政策_政策_美国_美国联邦地区法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%94%BF%E6%B2%BB</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>美國聯邦政府</t>
+    <t>美国联邦政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%AE%AA%E6%B3%95</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%94%90%E7%B4%8D%C2%B7%E5%B7%9D%E6%99%AE</t>
   </si>
   <si>
-    <t>唐納·川普</t>
+    <t>唐纳·川普</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%85%B1%E5%92%8C%E5%85%9A</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E5%85%8B%C2%B7%E5%BD%AD%E6%96%AF</t>
   </si>
   <si>
-    <t>麥克·彭斯</t>
+    <t>麦克·彭斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E9%98%81</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%AF%E9%82%A6%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國聯邦機構列表</t>
+    <t>美国联邦机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E8%A1%8C%E6%94%BF%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
@@ -119,19 +119,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國眾議院</t>
+    <t>美国众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2%E8%AD%B0%E9%95%B7</t>
   </si>
   <si>
-    <t>美國眾議院議長</t>
+    <t>美国众议院议长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E7%BE%85%C2%B7%E8%90%8A%E6%81%A9</t>
   </si>
   <si>
-    <t>保羅·萊恩</t>
+    <t>保罗·莱恩</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Party_leaders_of_the_United_States_House_of_Representatives</t>
@@ -149,19 +149,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國參議院</t>
+    <t>美国参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2%E8%87%A8%E6%99%82%E8%AD%B0%E9%95%B7</t>
   </si>
   <si>
-    <t>參議院臨時議長</t>
+    <t>参议院临时议长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%9E%97%C2%B7%E5%93%88%E5%A5%87</t>
   </si>
   <si>
-    <t>奧林·哈奇</t>
+    <t>奥林·哈奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2%E6%94%BF%E5%85%9A%E9%A2%86%E8%A2%96</t>
@@ -191,13 +191,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%A0%BC%E6%B4%9B%E4%BD%9B%C2%B7%E7%BE%85%E4%BC%AF%E8%8C%A8</t>
   </si>
   <si>
-    <t>約翰·格洛佛·羅伯茨</t>
+    <t>约翰·格洛佛·罗伯茨</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9C%80%E9%AB%98%E6%B3%95%E9%99%A2%E5%A4%A7%E6%B3%95%E5%AE%98</t>
   </si>
   <si>
-    <t>美國最高法院大法官</t>
+    <t>美国最高法院大法官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國選舉</t>
+    <t>美国选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E9%80%89%E4%B8%BE</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E6%9C%9F%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>美國中期選舉</t>
+    <t>美国中期选举</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%85%9A_(%E7%BE%8E%E5%9B%BD)</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>州長 (美國)</t>
+    <t>州长 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/State_legislature_(United_States)</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%A4%96%E4%BA%A4%E5%85%B3%E7%B3%BB</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>Template talk-美國政治</t>
+    <t>Template talk-美国政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%81%94%E9%82%A6%E6%B3%95%E9%99%A2%E7%B3%BB%E7%BB%9F</t>
@@ -395,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%AE%A1%E8%BD%84%E6%AC%8A</t>
   </si>
   <si>
-    <t>司法管轄權</t>
+    <t>司法管辖权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E4%B8%8A%E8%AF%89%E6%B3%95%E9%99%A2</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B3%95%E5%85%B8</t>
   </si>
   <si>
-    <t>美國法典</t>
+    <t>美国法典</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Title_48_of_the_United_States_Code</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%8D%E5%93%A5%E5%80%AB%E5%B8%83%E6%99%82%E6%9C%9F</t>
   </si>
   <si>
-    <t>前哥倫布時期</t>
+    <t>前哥伦布时期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A0%98%E5%9C%9F%E8%AE%8A%E9%81%B7</t>
   </si>
   <si>
-    <t>美國領土變遷</t>
+    <t>美国领土变迁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%85%E6%88%98</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>波斯灣戰爭</t>
+    <t>波斯湾战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E6%88%98%E4%BA%89</t>
@@ -527,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E8%9E%8D%E6%B5%B7%E5%98%AF</t>
   </si>
   <si>
-    <t>金融海嘯</t>
+    <t>金融海啸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3</t>
@@ -557,7 +557,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%83%B5%E6%94%BF%E7%BD%B2</t>
   </si>
   <si>
-    <t>美國郵政署</t>
+    <t>美国邮政署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF</t>
@@ -575,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -587,15 +587,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
   </si>
   <si>
-    <t>美国众议院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%82%E8%AE%AE%E9%99%A2</t>
   </si>
   <si>
-    <t>美国参议院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%80%BB%E7%BB%9F%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
   </si>
   <si>
@@ -611,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C%E7%8D%A8%E7%AB%8B%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>美國政府獨立機構</t>
+    <t>美国政府独立机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
@@ -629,13 +623,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%83%85%E5%A0%B1%E9%AB%94%E7%B3%BB</t>
   </si>
   <si>
-    <t>美國情報體系</t>
+    <t>美国情报体系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E6%83%85%E5%A0%B1%E7%B8%BD%E7%9B%A3</t>
   </si>
   <si>
-    <t>國家情報總監</t>
+    <t>国家情报总监</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%83%85%E6%8A%A5%E5%B1%80</t>
@@ -647,13 +641,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>國防情報局</t>
+    <t>国防情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%AE%B6%E5%9C%B0%E7%90%86%E7%A9%BA%E9%96%93%E6%83%85%E5%A0%B1%E5%B1%80</t>
   </si>
   <si>
-    <t>美國國家地理空間情報局</t>
+    <t>美国国家地理空间情报局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E4%BE%A6%E5%AF%9F%E5%B1%80</t>
@@ -701,7 +695,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%B0%91%E8%AD%A6%E8%A1%9B%E9%9A%8A</t>
   </si>
   <si>
-    <t>美國國民警衛隊</t>
+    <t>美国国民警卫队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%80%89%E4%B8%BE%E4%BA%BA%E5%9B%A2</t>
@@ -731,7 +725,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%AC%AC51%E5%B7%9E</t>
   </si>
   <si>
-    <t>美國第51州</t>
+    <t>美国第51州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Political_status_of_Puerto_Rico</t>
@@ -743,7 +737,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E5%B7%9E%E8%88%87%E8%97%8D%E5%B7%9E</t>
   </si>
   <si>
-    <t>紅州與藍州</t>
+    <t>红州与蓝州</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Purple_America</t>
@@ -779,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD%E5%88%97%E8%A1%A8</t>
@@ -791,13 +785,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%A7%E8%A5%BF%E6%B4%8B%E5%9C%B0%E5%8C%BA</t>
@@ -809,13 +803,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國南部</t>
+    <t>美国南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E5%A4%A7%E5%B9%B3%E5%8E%9F</t>
@@ -827,13 +821,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西北部</t>
+    <t>美国西北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A5%BF%E5%8D%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國西南部</t>
+    <t>美国西南部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B2%B3%E6%B5%81%E5%88%97%E8%A1%A8</t>
@@ -863,9 +857,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美国州份</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E9%A2%86%E5%9C%9F</t>
   </si>
   <si>
@@ -881,7 +872,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%A4%A2</t>
   </si>
   <si>
-    <t>美國夢</t>
+    <t>美国梦</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/United_States_federal_budget</t>
@@ -893,13 +884,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%84%B2%E5%82%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>聯邦儲備系統</t>
+    <t>联邦储备系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9A%84%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>美國的工會</t>
+    <t>美国的工会</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Social_programs_in_the_United_States</t>
@@ -911,13 +902,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E5%82%B5</t>
   </si>
   <si>
-    <t>美國國債</t>
+    <t>美国国债</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%A4%E9%80%9A</t>
   </si>
   <si>
-    <t>美國交通</t>
+    <t>美国交通</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%BA%E5%9C%BA%E5%88%97%E8%A1%A8</t>
@@ -929,13 +920,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E9%81%93</t>
   </si>
   <si>
-    <t>美國國道</t>
+    <t>美国国道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>州際公路系統</t>
+    <t>州际公路系统</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unemployment_in_the_United_States</t>
@@ -959,7 +950,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>美國社會</t>
+    <t>美国社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%8A%AF%E7%BD%AA</t>
@@ -1031,15 +1022,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%A4%BE%E6%9C%83%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>美國社會階層</t>
+    <t>美国社会阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%A2%A6</t>
   </si>
   <si>
-    <t>美国梦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BD%93%E8%82%B2</t>
   </si>
   <si>
@@ -1049,7 +1037,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8BLGBT%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>美國LGBT權益</t>
+    <t>美国LGBT权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%8C%E6%80%A7%E5%A9%9A%E5%A7%BB</t>
@@ -1103,7 +1091,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%A3%B2%E9%A3%9F%E6%96%87%E5%8C%96</t>
   </si>
   <si>
-    <t>美國飲食文化</t>
+    <t>美国饮食文化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E6%97%97</t>
@@ -1139,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>美國電視</t>
+    <t>美国电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%94%B5%E5%BD%B1</t>
@@ -1157,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8A%BD%E8%B1%A1%E8%A1%A8%E7%8F%BE%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>抽象表現主義</t>
+    <t>抽象表现主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%A4%BE%E4%BC%9A%E9%97%AE%E9%A2%98</t>
@@ -1193,19 +1181,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%94%AF%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>美國槍支政治</t>
+    <t>美国枪支政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%A7%8D%E6%9E%9D%E6%9A%B4%E5%8A%9B%E5%95%8F%E9%A1%8C</t>
   </si>
   <si>
-    <t>美國槍枝暴力問題</t>
+    <t>美国枪枝暴力问题</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%86%AB%E7%99%82%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
-    <t>美國醫療改革</t>
+    <t>美国医疗改革</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E6%9D%83</t>
@@ -1217,7 +1205,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%A2%A8%E9%82%8A%E7%95%8C</t>
   </si>
   <si>
-    <t>美墨邊界</t>
+    <t>美墨边界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%9A%84%E8%82%A5%E8%83%96%E9%97%AE%E9%A2%98</t>
@@ -4588,7 +4576,7 @@
         <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4614,10 +4602,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>44</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4672,10 +4660,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4701,10 +4689,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4730,10 +4718,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4817,10 +4805,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F105" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4846,10 +4834,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F106" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4875,10 +4863,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F107" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -4904,10 +4892,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4933,10 +4921,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F109" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4962,10 +4950,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F110" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4991,10 +4979,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F111" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5020,10 +5008,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F112" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5049,10 +5037,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F113" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5078,10 +5066,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F114" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5107,10 +5095,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F115" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5136,10 +5124,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F116" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5165,10 +5153,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F117" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5194,10 +5182,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F118" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5223,10 +5211,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F119" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5281,10 +5269,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F121" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5310,10 +5298,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F122" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5339,10 +5327,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F123" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -5368,10 +5356,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F124" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -5397,10 +5385,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F125" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5426,10 +5414,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F126" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5455,10 +5443,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F127" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5484,10 +5472,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F128" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5513,10 +5501,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F129" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5542,10 +5530,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F130" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -5571,10 +5559,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F131" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5600,10 +5588,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F132" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5629,10 +5617,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F133" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5658,10 +5646,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F134" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5687,10 +5675,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F135" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5716,10 +5704,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F136" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5745,10 +5733,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5774,10 +5762,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5803,10 +5791,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5832,10 +5820,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5861,10 +5849,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F141" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5890,10 +5878,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5919,10 +5907,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5948,10 +5936,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5977,10 +5965,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F145" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6006,10 +5994,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F146" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6035,10 +6023,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F147" t="s">
-        <v>282</v>
+        <v>88</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6064,10 +6052,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F148" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G148" t="n">
         <v>2</v>
@@ -6093,10 +6081,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F149" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6122,10 +6110,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6151,10 +6139,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6180,10 +6168,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6209,10 +6197,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6238,10 +6226,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6267,10 +6255,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6296,10 +6284,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6325,10 +6313,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6354,10 +6342,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6383,10 +6371,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6412,10 +6400,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6441,10 +6429,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6470,10 +6458,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6499,10 +6487,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -6528,10 +6516,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6557,10 +6545,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -6586,10 +6574,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6615,10 +6603,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6644,10 +6632,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6673,10 +6661,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6702,10 +6690,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6731,10 +6719,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G171" t="n">
         <v>4</v>
@@ -6760,10 +6748,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G172" t="n">
         <v>3</v>
@@ -6789,10 +6777,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6818,10 +6806,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6847,10 +6835,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6876,10 +6864,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>285</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6905,10 +6893,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6934,10 +6922,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6963,10 +6951,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6992,10 +6980,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7021,10 +7009,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>2</v>
@@ -7050,10 +7038,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7079,10 +7067,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7108,10 +7096,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7137,10 +7125,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7166,10 +7154,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7195,10 +7183,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F187" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7224,10 +7212,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7253,10 +7241,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>4</v>
@@ -7282,10 +7270,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7311,10 +7299,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7340,10 +7328,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7369,10 +7357,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7398,10 +7386,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7427,10 +7415,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7456,10 +7444,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7485,10 +7473,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F197" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7514,10 +7502,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7543,10 +7531,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F199" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7572,10 +7560,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F200" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7601,10 +7589,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F201" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7630,10 +7618,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F202" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7659,10 +7647,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F203" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7688,10 +7676,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F204" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7717,10 +7705,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F205" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -7746,10 +7734,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F206" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7775,10 +7763,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F207" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7804,10 +7792,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F208" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7833,10 +7821,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F209" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G209" t="n">
         <v>20</v>
@@ -7862,10 +7850,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="F210" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G210" t="n">
         <v>24</v>
@@ -7891,10 +7879,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F211" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G211" t="n">
         <v>17</v>
@@ -7920,10 +7908,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F212" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7949,10 +7937,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F213" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7978,10 +7966,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F214" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G214" t="n">
         <v>17</v>
@@ -8007,10 +7995,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F215" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G215" t="n">
         <v>27</v>
@@ -8036,10 +8024,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F216" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -8065,10 +8053,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F217" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8094,10 +8082,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F218" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8123,10 +8111,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F219" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8152,10 +8140,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F220" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8181,10 +8169,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F221" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8210,10 +8198,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F222" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8239,10 +8227,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F223" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8268,10 +8256,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F224" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8297,10 +8285,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F225" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8326,10 +8314,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F226" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8355,10 +8343,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F227" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8384,10 +8372,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F228" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8413,10 +8401,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F229" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8442,10 +8430,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8471,10 +8459,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F231" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8500,10 +8488,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F232" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8529,10 +8517,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -8558,10 +8546,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F234" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8587,10 +8575,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F235" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8616,10 +8604,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F236" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -8645,10 +8633,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F237" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -8674,10 +8662,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F238" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -8703,10 +8691,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F239" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -8732,10 +8720,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F240" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -8761,10 +8749,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F241" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -8790,10 +8778,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
